--- a/Coverage Survey/Burkina Faso/IVM+ALB/cs3_dc_questionnaire.xlsx
+++ b/Coverage Survey/Burkina Faso/IVM+ALB/cs3_dc_questionnaire.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="245">
   <si>
     <t>form_title</t>
   </si>
@@ -103,12 +103,6 @@
     <t>05</t>
   </si>
   <si>
-    <t>select_one code_equipe</t>
-  </si>
-  <si>
-    <t>code_equipe</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nom du CSPS </t>
   </si>
   <si>
@@ -133,9 +127,6 @@
     <t>Quelle est votre principale occupation ?</t>
   </si>
   <si>
-    <t>Code de l'équipe</t>
-  </si>
-  <si>
     <t>code_enqueteur</t>
   </si>
   <si>
@@ -262,9 +253,6 @@
     <t>Code de l'enqueteur</t>
   </si>
   <si>
-    <t>. &gt;=0 and . &lt;= 120</t>
-  </si>
-  <si>
     <t>Féminin</t>
   </si>
   <si>
@@ -340,9 +328,6 @@
     <t>Jour_Distribution</t>
   </si>
   <si>
-    <t>Combien de nombre avez-vous distribué les médicaments lors de la dernière campagne</t>
-  </si>
-  <si>
     <t>Heure_distribution</t>
   </si>
   <si>
@@ -761,6 +746,27 @@
   </si>
   <si>
     <t>Strat_Addit_effets_indesirables</t>
+  </si>
+  <si>
+    <t>. &gt;=15 and . &lt;= 120</t>
+  </si>
+  <si>
+    <t>selected(${Travail_pour_autre_programme},'Oui')</t>
+  </si>
+  <si>
+    <t>Combien de jours avez-vous distribué les médicaments lors de la dernière campagne</t>
+  </si>
+  <si>
+    <t>selected(${Performance_rupture_medicament},'Oui')</t>
+  </si>
+  <si>
+    <t>Performance_CAT_rupture_autre</t>
+  </si>
+  <si>
+    <t>selected(${Performance_CAT_rupture},'Autres')</t>
+  </si>
+  <si>
+    <t>Autres actions en cas de ruture</t>
   </si>
 </sst>
 </file>
@@ -916,7 +922,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -968,9 +974,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1279,15 +1282,15 @@
   <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="77.125" style="27" customWidth="1"/>
     <col min="4" max="4" width="16.375" customWidth="1"/>
     <col min="5" max="5" width="13.625" customWidth="1"/>
     <col min="6" max="6" width="18.625" bestFit="1" customWidth="1"/>
@@ -1330,882 +1333,882 @@
       </c>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:11" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="12"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="21"/>
-    </row>
-    <row r="3" spans="1:11" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" s="12"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
       <c r="I4" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="24"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="14"/>
+      <c r="C6" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="6"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="J6" s="25"/>
+        <v>71</v>
+      </c>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>29</v>
+        <v>40</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="8"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="8"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
       <c r="I8" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="J8" s="7"/>
+        <v>71</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
       <c r="I9" s="17" t="s">
-        <v>74</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+        <v>183</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>82</v>
+      </c>
       <c r="I10" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="5"/>
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>188</v>
       </c>
       <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="I11" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>88</v>
-      </c>
       <c r="I12" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" t="s">
+        <v>239</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C14" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="I13" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="I14" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C15" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="I14" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>94</v>
-      </c>
       <c r="I15" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>62</v>
+        <v>214</v>
       </c>
       <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C17" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="I16" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>98</v>
-      </c>
       <c r="I17" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>100</v>
+        <v>97</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>240</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>104</v>
-      </c>
       <c r="I20" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
+        <v>235</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" t="s">
-        <v>240</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="I23" s="17"/>
+      <c r="I23" s="17" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>110</v>
+        <v>106</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>107</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>109</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>114</v>
+        <v>110</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>113</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>118</v>
+        <v>114</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>115</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>120</v>
+        <v>116</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>117</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>122</v>
+        <v>118</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>119</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>121</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>123</v>
       </c>
       <c r="I32" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>128</v>
+        <v>124</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>125</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>130</v>
+        <v>126</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B35" t="s">
-        <v>131</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>132</v>
+        <v>128</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>129</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="I37" s="17"/>
+    </row>
+    <row r="38" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" t="s">
+        <v>218</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="I38" s="17"/>
+    </row>
+    <row r="39" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B39" t="s">
         <v>133</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C39" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="I36" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B37" t="s">
-        <v>135</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="I37" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>69</v>
-      </c>
-      <c r="I38" s="17"/>
-    </row>
-    <row r="39" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" t="s">
-        <v>223</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="I39" s="17"/>
+      <c r="I39" s="17" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="40" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>139</v>
+        <v>135</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>136</v>
       </c>
       <c r="I40" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>141</v>
+        <v>137</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>138</v>
       </c>
       <c r="I41" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B42" t="s">
-        <v>142</v>
-      </c>
-      <c r="C42" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>140</v>
       </c>
       <c r="I42" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B43" t="s">
-        <v>144</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>145</v>
+        <v>141</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>142</v>
       </c>
       <c r="I43" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B44" t="s">
-        <v>146</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>147</v>
+        <v>143</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>144</v>
       </c>
       <c r="I44" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B45" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>66</v>
+      </c>
+      <c r="I46" s="17"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="C45" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="I45" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="B46" t="s">
-        <v>150</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="I46" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>69</v>
-      </c>
-      <c r="I47" s="17"/>
+      <c r="I47" s="17" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>66</v>
+        <v>224</v>
       </c>
       <c r="B48" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="I48" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B49" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="C48" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="I48" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B49" t="s">
-        <v>154</v>
-      </c>
-      <c r="C49" s="28" t="s">
-        <v>155</v>
-      </c>
       <c r="I49" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B50" t="s">
-        <v>156</v>
-      </c>
-      <c r="C50" s="28" t="s">
-        <v>157</v>
+        <v>236</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>153</v>
       </c>
       <c r="I50" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>229</v>
+        <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>241</v>
-      </c>
-      <c r="C51" s="28" t="s">
-        <v>158</v>
+        <v>154</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>155</v>
       </c>
       <c r="I51" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="B52" t="s">
-        <v>159</v>
-      </c>
-      <c r="C52" s="28" t="s">
-        <v>160</v>
+        <v>156</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="H52" t="s">
+        <v>241</v>
       </c>
       <c r="I52" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>161</v>
-      </c>
-      <c r="C53" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="I53" s="17" t="s">
-        <v>74</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="H53" t="s">
+        <v>243</v>
+      </c>
+      <c r="I53" s="17"/>
     </row>
     <row r="54" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>163</v>
-      </c>
-      <c r="C54" s="28" t="s">
-        <v>164</v>
+        <v>158</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>159</v>
       </c>
       <c r="I54" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>165</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>166</v>
+        <v>160</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>161</v>
       </c>
       <c r="I55" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B56" t="s">
-        <v>167</v>
-      </c>
-      <c r="C56" s="28" t="s">
-        <v>168</v>
+        <v>162</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>163</v>
       </c>
       <c r="I56" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>169</v>
-      </c>
-      <c r="C57" s="28" t="s">
-        <v>170</v>
+        <v>164</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>165</v>
       </c>
       <c r="I57" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>242</v>
-      </c>
-      <c r="C58" s="28" t="s">
-        <v>171</v>
+        <v>237</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>166</v>
       </c>
       <c r="I58" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>172</v>
-      </c>
-      <c r="C59" s="28" t="s">
-        <v>173</v>
+        <v>167</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>168</v>
       </c>
       <c r="I59" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>174</v>
-      </c>
-      <c r="C60" s="28" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>170</v>
       </c>
       <c r="I60" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>176</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>177</v>
+        <v>171</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>172</v>
       </c>
       <c r="I61" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>178</v>
-      </c>
-      <c r="C62" s="28" t="s">
-        <v>179</v>
+        <v>173</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>174</v>
       </c>
       <c r="I62" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2215,27 +2218,25 @@
       <c r="B63" t="s">
         <v>13</v>
       </c>
-      <c r="C63" s="28" t="s">
+      <c r="C63" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I63" s="17" t="s">
-        <v>74</v>
-      </c>
+      <c r="I63" s="17"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2247,10 +2248,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F143"/>
+  <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:A67"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2273,11 +2274,11 @@
       </c>
       <c r="D1" s="20"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="23"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>24</v>
+      <c r="A2" s="26" t="s">
+        <v>16</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>18</v>
@@ -2285,11 +2286,11 @@
       <c r="C2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="20"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>24</v>
+      <c r="A3" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>19</v>
@@ -2297,11 +2298,11 @@
       <c r="C3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="20"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>24</v>
+      <c r="A4" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>20</v>
@@ -2309,11 +2310,11 @@
       <c r="C4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="20"/>
+      <c r="D4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>24</v>
+      <c r="A5" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>21</v>
@@ -2321,922 +2322,874 @@
       <c r="C5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="20"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="16"/>
+      <c r="B6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="16"/>
+      <c r="A7" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="16"/>
+      <c r="A8" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="9"/>
+      <c r="A9" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B25" t="s">
         <v>180</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="C25" t="s">
         <v>180</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B26" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B30" t="s">
+        <v>190</v>
+      </c>
+      <c r="C30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B31" t="s">
+        <v>191</v>
+      </c>
+      <c r="C31" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B32" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B33" t="s">
+        <v>193</v>
+      </c>
+      <c r="C33" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C35" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B36" t="s">
+        <v>198</v>
+      </c>
+      <c r="C36" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B37" t="s">
+        <v>205</v>
+      </c>
+      <c r="C37" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B38" t="s">
+        <v>206</v>
+      </c>
+      <c r="C38" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C39" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B40" t="s">
+        <v>202</v>
+      </c>
+      <c r="C40" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B41" t="s">
+        <v>203</v>
+      </c>
+      <c r="C41" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="B42" t="s">
+        <v>212</v>
+      </c>
+      <c r="C42" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="B43" t="s">
+        <v>210</v>
+      </c>
+      <c r="C43" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="B44" t="s">
+        <v>211</v>
+      </c>
+      <c r="C44" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="B55" t="s">
+        <v>220</v>
+      </c>
+      <c r="C55" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="B56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C56" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="B57" t="s">
+        <v>222</v>
+      </c>
+      <c r="C57" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="B58" t="s">
+        <v>225</v>
+      </c>
+      <c r="C58" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="B59" t="s">
+        <v>226</v>
+      </c>
+      <c r="C59" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="B60" t="s">
+        <v>227</v>
+      </c>
+      <c r="C60" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="B61" t="s">
         <v>56</v>
       </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="B26" t="s">
-        <v>182</v>
-      </c>
-      <c r="C26" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="B27" t="s">
-        <v>183</v>
-      </c>
-      <c r="C27" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="B28" t="s">
-        <v>184</v>
-      </c>
-      <c r="C28" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="B29" t="s">
-        <v>185</v>
-      </c>
-      <c r="C29" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="B30" t="s">
-        <v>186</v>
-      </c>
-      <c r="C30" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="B31" t="s">
-        <v>189</v>
-      </c>
-      <c r="C31" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="B32" t="s">
-        <v>190</v>
-      </c>
-      <c r="C32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="B33" t="s">
-        <v>191</v>
-      </c>
-      <c r="C33" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="B34" t="s">
-        <v>195</v>
-      </c>
-      <c r="C34" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="B35" t="s">
-        <v>196</v>
-      </c>
-      <c r="C35" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="B36" t="s">
-        <v>197</v>
-      </c>
-      <c r="C36" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="B37" t="s">
-        <v>198</v>
-      </c>
-      <c r="C37" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="B38" t="s">
-        <v>199</v>
-      </c>
-      <c r="C38" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="B39" t="s">
-        <v>209</v>
-      </c>
-      <c r="C39" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="B40" t="s">
-        <v>203</v>
-      </c>
-      <c r="C40" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="B41" t="s">
-        <v>210</v>
-      </c>
-      <c r="C41" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="B42" t="s">
-        <v>211</v>
-      </c>
-      <c r="C42" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="B43" t="s">
-        <v>206</v>
-      </c>
-      <c r="C43" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="B44" t="s">
-        <v>207</v>
-      </c>
-      <c r="C44" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="B45" t="s">
-        <v>208</v>
-      </c>
-      <c r="C45" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="B46" t="s">
-        <v>217</v>
-      </c>
-      <c r="C46" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="B47" t="s">
-        <v>215</v>
-      </c>
-      <c r="C47" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="B48" t="s">
-        <v>216</v>
-      </c>
-      <c r="C48" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="B50">
-        <v>2</v>
-      </c>
-      <c r="C50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="B51">
-        <v>3</v>
-      </c>
-      <c r="C51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="B52">
-        <v>4</v>
-      </c>
-      <c r="C52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="B53">
-        <v>5</v>
-      </c>
-      <c r="C53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="B55">
-        <v>2</v>
-      </c>
-      <c r="C55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="B56">
-        <v>3</v>
-      </c>
-      <c r="C56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="B57">
-        <v>4</v>
-      </c>
-      <c r="C57">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="B58">
-        <v>5</v>
-      </c>
-      <c r="C58">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="30" t="s">
+      <c r="C61" t="s">
         <v>228</v>
       </c>
-      <c r="B59" t="s">
-        <v>225</v>
-      </c>
-      <c r="C59" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="B60" t="s">
-        <v>226</v>
-      </c>
-      <c r="C60" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="B61" t="s">
-        <v>227</v>
-      </c>
-      <c r="C61" t="s">
-        <v>227</v>
-      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="29" t="s">
         <v>234</v>
       </c>
       <c r="B62" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C62" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="29" t="s">
         <v>234</v>
       </c>
       <c r="B63" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C63" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="B64" t="s">
-        <v>232</v>
-      </c>
-      <c r="C64" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="B65" t="s">
-        <v>233</v>
-      </c>
-      <c r="C65" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="30" t="s">
-        <v>239</v>
-      </c>
-      <c r="B66" t="s">
-        <v>236</v>
-      </c>
-      <c r="C66" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="30" t="s">
-        <v>239</v>
-      </c>
-      <c r="B67" t="s">
-        <v>237</v>
-      </c>
-      <c r="C67" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="26"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="26"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="26"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="26"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="26"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="26"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="26"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="26"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="26"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="26"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="26"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="26"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="26"/>
+      <c r="A64" s="25"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="25"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="25"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="25"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="25"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="25"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="25"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="25"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="25"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="25"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="25"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="25"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="25"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="25"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="25"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="25"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="25"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="26"/>
+      <c r="A81" s="25"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="26"/>
+      <c r="A82" s="25"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="26"/>
+      <c r="A83" s="25"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="26"/>
+      <c r="A84" s="25"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="26"/>
+      <c r="A85" s="25"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="26"/>
+      <c r="A86" s="25"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="26"/>
+      <c r="A87" s="25"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="26"/>
+      <c r="A88" s="25"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="26"/>
+      <c r="A89" s="25"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="26"/>
+      <c r="A90" s="25"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="26"/>
+      <c r="A91" s="25"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="26"/>
+      <c r="A92" s="25"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="26"/>
+      <c r="A93" s="25"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="26"/>
+      <c r="A94" s="25"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="26"/>
+      <c r="A95" s="25"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="26"/>
+      <c r="A96" s="25"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="26"/>
+      <c r="A97" s="25"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="26"/>
+      <c r="A98" s="25"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="26"/>
+      <c r="A99" s="25"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="26"/>
+      <c r="A100" s="25"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="26"/>
+      <c r="A101" s="25"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="26"/>
+      <c r="A102" s="25"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="26"/>
+      <c r="A103" s="25"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="26"/>
+      <c r="A104" s="25"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="26"/>
+      <c r="A105" s="25"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="26"/>
+      <c r="A106" s="25"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="26"/>
+      <c r="A107" s="25"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="26"/>
+      <c r="A108" s="25"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="26"/>
+      <c r="A109" s="25"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="26"/>
+      <c r="A110" s="25"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="26"/>
+      <c r="A111" s="25"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="26"/>
+      <c r="A112" s="25"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="26"/>
+      <c r="A113" s="25"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="26"/>
+      <c r="A114" s="25"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="26"/>
+      <c r="A115" s="25"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="26"/>
+      <c r="A116" s="25"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="26"/>
+      <c r="A117" s="25"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="26"/>
+      <c r="A118" s="25"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="26"/>
+      <c r="A119" s="25"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="26"/>
+      <c r="A120" s="25"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="26"/>
+      <c r="A121" s="25"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="26"/>
+      <c r="A122" s="25"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="26"/>
+      <c r="A123" s="25"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="26"/>
+      <c r="A124" s="25"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="26"/>
+      <c r="A125" s="25"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="26"/>
+      <c r="A126" s="25"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="26"/>
+      <c r="A127" s="25"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="26"/>
+      <c r="A128" s="25"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="26"/>
+      <c r="A129" s="25"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="26"/>
+      <c r="A130" s="25"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="26"/>
+      <c r="A131" s="25"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="26"/>
+      <c r="A132" s="25"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="26"/>
+      <c r="A133" s="25"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="26"/>
+      <c r="A134" s="25"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="26"/>
+      <c r="A135" s="25"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="26"/>
+      <c r="A136" s="25"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="26"/>
+      <c r="A137" s="25"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="26"/>
+      <c r="A138" s="25"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="26"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="26"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="26"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="26"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="26"/>
+      <c r="A139" s="25"/>
     </row>
   </sheetData>
   <sortState ref="A42:D56">
@@ -3276,10 +3229,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C2" s="15">
         <v>20200306</v>

--- a/Coverage Survey/Burkina Faso/IVM+ALB/cs3_dc_questionnaire.xlsx
+++ b/Coverage Survey/Burkina Faso/IVM+ALB/cs3_dc_questionnaire.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="251">
   <si>
     <t>form_title</t>
   </si>
@@ -622,9 +622,6 @@
     <t>autres_programe</t>
   </si>
   <si>
-    <t>select_one autres_programe</t>
-  </si>
-  <si>
     <t>a. Aider ma communauté</t>
   </si>
   <si>
@@ -767,6 +764,27 @@
   </si>
   <si>
     <t>Autres actions en cas de ruture</t>
+  </si>
+  <si>
+    <t>select_multiple autres_programe</t>
+  </si>
+  <si>
+    <t>a.Paludisme</t>
+  </si>
+  <si>
+    <t>b.Vaccination</t>
+  </si>
+  <si>
+    <t>c.Nutrition</t>
+  </si>
+  <si>
+    <t>d.ASBC</t>
+  </si>
+  <si>
+    <t>autres</t>
+  </si>
+  <si>
+    <t>selected(${Strat_Addit_implication_leaders},'Oui')</t>
   </si>
 </sst>
 </file>
@@ -1282,8 +1300,8 @@
   <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I63" sqref="I63"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1399,7 +1417,7 @@
       <c r="D5" s="14"/>
       <c r="E5" s="6"/>
       <c r="F5" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="6"/>
@@ -1526,7 +1544,7 @@
     </row>
     <row r="13" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c r="B13" t="s">
         <v>87</v>
@@ -1535,7 +1553,7 @@
         <v>88</v>
       </c>
       <c r="H13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I13" s="17" t="s">
         <v>71</v>
@@ -1543,7 +1561,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B14" t="s">
         <v>89</v>
@@ -1571,7 +1589,7 @@
     </row>
     <row r="16" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B16" t="s">
         <v>93</v>
@@ -1605,7 +1623,7 @@
         <v>97</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I18" s="17" t="s">
         <v>71</v>
@@ -1644,7 +1662,7 @@
         <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C21" s="27" t="s">
         <v>102</v>
@@ -1667,7 +1685,7 @@
     </row>
     <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B23" t="s">
         <v>104</v>
@@ -1681,7 +1699,7 @@
     </row>
     <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s">
         <v>106</v>
@@ -1695,7 +1713,7 @@
     </row>
     <row r="25" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s">
         <v>108</v>
@@ -1709,7 +1727,7 @@
     </row>
     <row r="26" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B26" t="s">
         <v>110</v>
@@ -1723,7 +1741,7 @@
     </row>
     <row r="27" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B27" t="s">
         <v>112</v>
@@ -1737,7 +1755,7 @@
     </row>
     <row r="28" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" t="s">
         <v>114</v>
@@ -1751,7 +1769,7 @@
     </row>
     <row r="29" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B29" t="s">
         <v>116</v>
@@ -1765,7 +1783,7 @@
     </row>
     <row r="30" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B30" t="s">
         <v>118</v>
@@ -1779,7 +1797,7 @@
     </row>
     <row r="31" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B31" t="s">
         <v>120</v>
@@ -1793,7 +1811,7 @@
     </row>
     <row r="32" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B32" t="s">
         <v>122</v>
@@ -1807,7 +1825,7 @@
     </row>
     <row r="33" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B33" t="s">
         <v>124</v>
@@ -1821,7 +1839,7 @@
     </row>
     <row r="34" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B34" t="s">
         <v>126</v>
@@ -1835,7 +1853,7 @@
     </row>
     <row r="35" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B35" t="s">
         <v>128</v>
@@ -1849,7 +1867,7 @@
     </row>
     <row r="36" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B36" t="s">
         <v>130</v>
@@ -1872,7 +1890,7 @@
         <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>132</v>
@@ -1881,7 +1899,7 @@
     </row>
     <row r="39" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B39" t="s">
         <v>133</v>
@@ -1895,7 +1913,7 @@
     </row>
     <row r="40" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B40" t="s">
         <v>135</v>
@@ -1909,7 +1927,7 @@
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B41" t="s">
         <v>137</v>
@@ -1923,7 +1941,7 @@
     </row>
     <row r="42" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B42" t="s">
         <v>139</v>
@@ -1937,7 +1955,7 @@
     </row>
     <row r="43" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B43" t="s">
         <v>141</v>
@@ -1951,7 +1969,7 @@
     </row>
     <row r="44" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B44" t="s">
         <v>143</v>
@@ -1965,7 +1983,7 @@
     </row>
     <row r="45" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B45" t="s">
         <v>145</v>
@@ -1999,7 +2017,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B48" t="s">
         <v>149</v>
@@ -2013,7 +2031,7 @@
     </row>
     <row r="49" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B49" t="s">
         <v>151</v>
@@ -2027,10 +2045,10 @@
     </row>
     <row r="50" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B50" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C50" s="27" t="s">
         <v>153</v>
@@ -2055,7 +2073,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B52" t="s">
         <v>156</v>
@@ -2064,7 +2082,7 @@
         <v>157</v>
       </c>
       <c r="H52" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I52" s="17" t="s">
         <v>71</v>
@@ -2075,13 +2093,13 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
+        <v>241</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="H53" t="s">
         <v>242</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="H53" t="s">
-        <v>243</v>
       </c>
       <c r="I53" s="17"/>
     </row>
@@ -2115,7 +2133,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B56" t="s">
         <v>162</v>
@@ -2146,7 +2164,7 @@
         <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C58" s="27" t="s">
         <v>166</v>
@@ -2199,13 +2217,16 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="B62" t="s">
         <v>173</v>
       </c>
       <c r="C62" s="27" t="s">
         <v>174</v>
+      </c>
+      <c r="H62" t="s">
+        <v>250</v>
       </c>
       <c r="I62" s="17" t="s">
         <v>71</v>
@@ -2250,8 +2271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2594,7 +2615,7 @@
         <v>195</v>
       </c>
       <c r="B30" t="s">
-        <v>190</v>
+        <v>245</v>
       </c>
       <c r="C30" t="s">
         <v>190</v>
@@ -2605,7 +2626,7 @@
         <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>246</v>
       </c>
       <c r="C31" t="s">
         <v>191</v>
@@ -2616,7 +2637,7 @@
         <v>195</v>
       </c>
       <c r="B32" t="s">
-        <v>192</v>
+        <v>247</v>
       </c>
       <c r="C32" t="s">
         <v>192</v>
@@ -2627,7 +2648,7 @@
         <v>195</v>
       </c>
       <c r="B33" t="s">
-        <v>193</v>
+        <v>248</v>
       </c>
       <c r="C33" t="s">
         <v>193</v>
@@ -2638,7 +2659,7 @@
         <v>195</v>
       </c>
       <c r="B34" t="s">
-        <v>194</v>
+        <v>249</v>
       </c>
       <c r="C34" t="s">
         <v>194</v>
@@ -2646,117 +2667,117 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B44" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C44" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -2767,7 +2788,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -2778,7 +2799,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -2789,7 +2810,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B48">
         <v>4</v>
@@ -2800,7 +2821,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B49">
         <v>5</v>
@@ -2811,7 +2832,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -2822,7 +2843,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -2833,7 +2854,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -2844,7 +2865,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B53">
         <v>4</v>
@@ -2855,7 +2876,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B54">
         <v>5</v>
@@ -2866,101 +2887,101 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B55" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C55" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B56" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C56" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B57" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C57" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B58" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C58" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B59" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C59" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B61" t="s">
         <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B62" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C62" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B63" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C63" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
